--- a/Bodega Dekorarte/Proyectos/Comercial 22-Oct-2020/Producción/Faltantes/Faltantes de salida de Bodega - Producción.xlsx
+++ b/Bodega Dekorarte/Proyectos/Comercial 22-Oct-2020/Producción/Faltantes/Faltantes de salida de Bodega - Producción.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega Dekorarte\Proyectos\Comercial 22-Oct-2020\Producción\Faltantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bodega\Documents\Bodega\Bodega Dekorarte\Proyectos\Comercial 22-Oct-2020\Producción\Faltantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>NIT. 900,645,501-1</t>
   </si>
@@ -241,12 +241,6 @@
     <t>Cinta "No Pase"</t>
   </si>
   <si>
-    <t>Llaves del lavamanos</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Paredes carpas</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
       </rPr>
       <t xml:space="preserve"> Gustavo Moyano.</t>
     </r>
-  </si>
-  <si>
-    <t>Aun no ha sido entregado.</t>
   </si>
 </sst>
 </file>
@@ -328,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,13 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -449,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,12 +466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -651,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,15 +658,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,9 +665,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,45 +1317,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>432600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35212</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="672311" cy="1738502"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="908850" y="8964900"/>
-          <a:ext cx="672311" cy="1738502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1672,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,79 +1620,79 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -1805,8 +1732,8 @@
         <v>14</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="16" t="s">
-        <v>21</v>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1824,8 +1751,8 @@
         <v>14</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
+      <c r="H11" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1834,39 +1761,21 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="13" spans="2:8" ht="141.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:8" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1801,6 @@
     <row r="37" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:H2"/>
